--- a/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_1177906E53B4938C8EEE56074DF99702E7EACE7C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F3EF3B0-8905-4F4D-9F4C-A309D4F1A4BB}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_00731061537417F68E6D46074DF99702E7EA2FDA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CB74B13-0A81-4C1A-B0C1-6289C17B5447}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="68">
   <si>
     <t>Categoria</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>Formulário apto</t>
+  </si>
+  <si>
+    <t>10/06/2025</t>
+  </si>
+  <si>
+    <t>12/06/2025</t>
+  </si>
+  <si>
+    <t>06/06/2025</t>
   </si>
   <si>
     <t>Mês de referência</t>
@@ -2391,7 +2400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A316FE43-AB8F-44F3-BD4F-E03E09386AD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B56041A-BBDF-4AAE-A312-90111A630192}">
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2481,7 +2490,7 @@
       </c>
       <c r="H2" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="13">
         <f t="shared" ca="1" si="0"/>
@@ -2513,7 +2522,7 @@
       </c>
       <c r="P2" s="14">
         <f ca="1">SUM(B2:O2)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75">
@@ -2546,7 +2555,7 @@
       </c>
       <c r="H3" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -2578,7 +2587,7 @@
       </c>
       <c r="P3" s="17">
         <f t="shared" ref="P3:P8" ca="1" si="2">SUM(B3:O3)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -4172,7 +4181,7 @@
         <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -5616,10 +5625,12 @@
       <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="G3" s="6" t="s">
         <v>38</v>
       </c>
@@ -5643,10 +5654,12 @@
       <c r="D4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="G4" s="6" t="s">
         <v>38</v>
       </c>
@@ -5670,10 +5683,12 @@
       <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="G5" s="6" t="s">
         <v>38</v>
       </c>

--- a/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29012"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_00731061537417F68E6D46074DF99702E7EA2FDA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CB74B13-0A81-4C1A-B0C1-6289C17B5447}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_0073106153C41C94F2CF48074DF99702E7EA2FDA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0397ECA-437D-49C4-9BEA-99AE30D3776E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,7 +2400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B56041A-BBDF-4AAE-A312-90111A630192}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36BC5E5-F8DA-4A13-AF0E-A47C1ABCB22C}">
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29016"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_0073106153C41C94F2CF48074DF99702E7EA2FDA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0397ECA-437D-49C4-9BEA-99AE30D3776E}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_FA831A19CDE50B0E386B8D91680158748FC9348D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B547908-A761-4625-BDB4-204E8F23C131}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="16" r:id="rId1"/>
@@ -25,6 +25,22 @@
     <sheet name="12.25" sheetId="14" r:id="rId15"/>
     <sheet name="irregulares" sheetId="15" r:id="rId16"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'11.24'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'12.24'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'01.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'02.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'03.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'04.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'05.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'06.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'07.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'08.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'09.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'10.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'11.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'12.25'!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="73">
   <si>
     <t>Categoria</t>
   </si>
@@ -240,13 +256,28 @@
     <t>Formulário apto</t>
   </si>
   <si>
+    <t>18/06/2025</t>
+  </si>
+  <si>
+    <t>Corrigir o valor de despesa total de operação</t>
+  </si>
+  <si>
     <t>10/06/2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Corrigir valores de receita total e despesas de operação </t>
+  </si>
+  <si>
     <t>12/06/2025</t>
   </si>
   <si>
+    <t>Corrigir valores de receita total e despesas de operação e manutenção</t>
+  </si>
+  <si>
     <t>06/06/2025</t>
+  </si>
+  <si>
+    <t>Corrigir valores do filme stretch</t>
   </si>
   <si>
     <t>Mês de referência</t>
@@ -318,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,12 +390,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA020F0"/>
         <bgColor rgb="FFA020F0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6400"/>
-        <bgColor rgb="FFFF6400"/>
       </patternFill>
     </fill>
     <fill>
@@ -486,16 +511,22 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -543,20 +574,14 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2400,10 +2425,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36BC5E5-F8DA-4A13-AF0E-A47C1ABCB22C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3320FB-0F41-47C7-AD6C-9444C0706B61}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2411,506 +2436,506 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <f ca="1">COUNTIF(INDIRECT(B$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <f t="shared" ref="C2:O7" ca="1" si="0">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="H2" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I2" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J2" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K2" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L2" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M2" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N2" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O2" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P2" s="14">
+      <c r="H2" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I2" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2" s="13">
         <f ca="1">SUM(B2:O2)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <f t="shared" ref="B3:B7" ca="1" si="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D3" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E3" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G3" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="16">
+      <c r="C3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="16">
+        <f t="shared" ref="P3:P8" ca="1" si="2">SUM(B3:O3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75">
+      <c r="A4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="19">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75">
+      <c r="A5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="I3" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J3" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M3" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N3" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O3" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P3" s="17">
-        <f t="shared" ref="P3:P8" ca="1" si="2">SUM(B3:O3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75">
-      <c r="A4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C4" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D4" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75">
-      <c r="A5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="22">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="23">
+      <c r="F5" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="22">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="C6" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="26">
+      <c r="C6" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="25">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="27">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="C7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="29">
+      <c r="C7" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="28">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="30">
         <f ca="1">SUM(B2:B7)</f>
         <v>4</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="30">
         <f t="shared" ref="C8:O8" ca="1" si="3">SUM(C2:C7)</f>
         <v>4</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="30">
         <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="30">
         <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="30">
         <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="30">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="30">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="30">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="30">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="30">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="30">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="30">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="30">
         <f t="shared" ca="1" si="2"/>
         <v>28</v>
       </c>
@@ -3076,6 +3101,7 @@
       <c r="K5" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -3280,6 +3306,7 @@
       <c r="K5" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -3484,6 +3511,7 @@
       <c r="K5" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -3688,6 +3716,7 @@
       <c r="K5" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -3892,6 +3921,7 @@
       <c r="K5" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -4096,6 +4126,7 @@
       <c r="K5" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -4181,7 +4212,7 @@
         <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4361,6 +4392,7 @@
       <c r="K5" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="139" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -4581,6 +4613,7 @@
       <c r="K5" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="129" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -4801,6 +4834,7 @@
       <c r="K5" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="119" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -5022,6 +5056,7 @@
       <c r="K5" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="109" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -5254,6 +5289,7 @@
       <c r="K5" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="99" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -5482,6 +5518,7 @@
       <c r="K5" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -5534,7 +5571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5585,7 +5624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="66.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -5598,21 +5637,25 @@
       <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>65</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="56.25">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -5629,19 +5672,21 @@
         <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>67</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="70.5">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -5658,19 +5703,21 @@
         <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>69</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="28.5">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -5687,12 +5734,14 @@
         <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>71</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
         <v>38</v>
@@ -5700,6 +5749,7 @@
       <c r="K5" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="79" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -5737,10 +5787,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2:G5 J2:J5" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E5" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5904,6 +5954,7 @@
       <c r="K5" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="69" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>

--- a/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29016"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_FA831A19CDE50B0E386B8D91680158748FC9348D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B547908-A761-4625-BDB4-204E8F23C131}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_FA831A19CDE50B0E386B8D91680158748FC9348D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EAE3BD2-2B72-4852-8715-C8EDAB708893}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="16" r:id="rId1"/>
@@ -2949,2630 +2949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
-  <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="57" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="55" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"Enviado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado &gt;= 2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Outras Ocorrências"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Sem Técnico"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"Duplicado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0800-000000000000}">
-      <formula1>"Sim,Não"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0800-000001000000}">
-      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
-  <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="47" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="45" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"Enviado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado &gt;= 2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Outras Ocorrências"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Sem Técnico"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"Duplicado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0900-000000000000}">
-      <formula1>"Sim,Não"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0900-000001000000}">
-      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
-  <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="37" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="35" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"Enviado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado &gt;= 2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Outras Ocorrências"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Sem Técnico"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"Duplicado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0A00-000000000000}">
-      <formula1>"Sim,Não"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0A00-000001000000}">
-      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
-  <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="27" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"Enviado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado &gt;= 2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Outras Ocorrências"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Sem Técnico"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"Duplicado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0B00-000000000000}">
-      <formula1>"Sim,Não"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0B00-000001000000}">
-      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
-  <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"Enviado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado &gt;= 2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Outras Ocorrências"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Sem Técnico"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"Duplicado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0C00-000000000000}">
-      <formula1>"Sim,Não"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0C00-000001000000}">
-      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
-  <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"Enviado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado &gt;= 2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Outras Ocorrências"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Sem Técnico"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"Duplicado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0D00-000000000000}">
-      <formula1>"Sim,Não"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0D00-000001000000}">
-      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="139" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="137" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="135" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"Enviado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado &gt;= 2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Outras Ocorrências"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Sem Técnico"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"Duplicado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"Sim,Não"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="129" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="127" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="125" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"Enviado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado &gt;= 2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Outras Ocorrências"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Sem Técnico"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"Duplicado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>"Sim,Não"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0100-000001000000}">
-      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="119" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="117" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="115" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"Enviado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado &gt;= 2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Outras Ocorrências"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Sem Técnico"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"Duplicado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>"Sim,Não"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0200-000001000000}">
-      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="87" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="109" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="107" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="105" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"Enviado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado &gt;= 2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Outras Ocorrências"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Sem Técnico"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"Duplicado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0300-000000000000}">
-      <formula1>"Sim,Não"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0300-000001000000}">
-      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="99" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="97" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="95" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"Enviado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado &gt;= 2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Outras Ocorrências"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Sem Técnico"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"Duplicado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0400-000000000000}">
-      <formula1>"Sim,Não"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0400-000001000000}">
-      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
-  <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="87" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="85" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"Enviado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Atrasado &gt;= 2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Outras Ocorrências"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Sem Técnico"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"Duplicado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0500-000000000000}">
-      <formula1>"Sim,Não"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0500-000001000000}">
-      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5624,7 +3003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="66.75" customHeight="1">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -5637,25 +3016,19 @@
       <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>65</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="56.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -5668,25 +3041,19 @@
       <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>67</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="70.5">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -5699,25 +3066,19 @@
       <c r="D4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>69</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="28.5">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -5730,18 +3091,12 @@
       <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>71</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
         <v>38</v>
@@ -5749,48 +3104,48 @@
       <c r="K5" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="79" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="77" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="75" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G5 J2:J5" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E5" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5798,11 +3153,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5954,6 +3312,2688 @@
       <c r="K5" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="cellIs" dxfId="47" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="45" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0900-000000000000}">
+      <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0900-000001000000}">
+      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="cellIs" dxfId="37" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="35" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+      <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="cellIs" dxfId="27" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+      <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+      <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0C00-000001000000}">
+      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+      <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0D00-000001000000}">
+      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="139" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="cellIs" dxfId="137" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="135" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="129" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="cellIs" dxfId="127" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="125" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="119" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="cellIs" dxfId="117" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="115" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="87" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="109" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="cellIs" dxfId="107" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="105" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0300-000001000000}">
+      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="99" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="cellIs" dxfId="97" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="95" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0400-000000000000}">
+      <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0400-000001000000}">
+      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="cellIs" dxfId="87" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="85" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0500-000000000000}">
+      <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0500-000001000000}">
+      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="79.5703125" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="cellIs" dxfId="79" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="cellIs" dxfId="77" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="75" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="G2:G5 J2:J5" xr:uid="{00000000-0002-0000-0600-000000000000}">
+      <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2:E5" xr:uid="{00000000-0002-0000-0600-000001000000}">
+      <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+  </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="69" priority="1" stopIfTrue="1" operator="equal">

--- a/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29101"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_FA831A19CDE50B0E386B8D91680158748FC9348D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EAE3BD2-2B72-4852-8715-C8EDAB708893}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F234ECEE63CAC6C9CF72AE8DA534E2F940D8E45F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E42874B7-6EDE-4F1D-BC47-603337BB90A3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumo" sheetId="16" r:id="rId1"/>
-    <sheet name="11.24" sheetId="1" r:id="rId2"/>
-    <sheet name="12.24" sheetId="2" r:id="rId3"/>
-    <sheet name="01.25" sheetId="3" r:id="rId4"/>
-    <sheet name="02.25" sheetId="4" r:id="rId5"/>
-    <sheet name="03.25" sheetId="5" r:id="rId6"/>
-    <sheet name="04.25" sheetId="6" r:id="rId7"/>
-    <sheet name="05.25" sheetId="7" r:id="rId8"/>
-    <sheet name="06.25" sheetId="8" r:id="rId9"/>
-    <sheet name="07.25" sheetId="9" r:id="rId10"/>
-    <sheet name="08.25" sheetId="10" r:id="rId11"/>
-    <sheet name="09.25" sheetId="11" r:id="rId12"/>
-    <sheet name="10.25" sheetId="12" r:id="rId13"/>
-    <sheet name="11.25" sheetId="13" r:id="rId14"/>
-    <sheet name="12.25" sheetId="14" r:id="rId15"/>
-    <sheet name="irregulares" sheetId="15" r:id="rId16"/>
+    <sheet name="Resumo" sheetId="1" r:id="rId1"/>
+    <sheet name="11.24" sheetId="2" r:id="rId2"/>
+    <sheet name="12.24" sheetId="3" r:id="rId3"/>
+    <sheet name="01.25" sheetId="4" r:id="rId4"/>
+    <sheet name="02.25" sheetId="5" r:id="rId5"/>
+    <sheet name="03.25" sheetId="6" r:id="rId6"/>
+    <sheet name="04.25" sheetId="7" r:id="rId7"/>
+    <sheet name="05.25" sheetId="8" r:id="rId8"/>
+    <sheet name="06.25" sheetId="9" r:id="rId9"/>
+    <sheet name="07.25" sheetId="10" r:id="rId10"/>
+    <sheet name="08.25" sheetId="11" r:id="rId11"/>
+    <sheet name="09.25" sheetId="12" r:id="rId12"/>
+    <sheet name="10.25" sheetId="13" r:id="rId13"/>
+    <sheet name="11.25" sheetId="14" r:id="rId14"/>
+    <sheet name="12.25" sheetId="15" r:id="rId15"/>
+    <sheet name="Irregulares" sheetId="16" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'11.24'!$A$1:$G$1</definedName>
@@ -40,6 +40,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'10.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'11.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'12.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Irregulares!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="73">
   <si>
     <t>Categoria</t>
   </si>
@@ -287,13 +288,46 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
     </font>
     <font>
       <b/>
@@ -310,87 +344,13 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF003366"/>
-        <bgColor rgb="FF003366"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FF66"/>
-        <bgColor rgb="FF66FF66"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF993399"/>
-        <bgColor rgb="FF993399"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF006400"/>
-        <bgColor rgb="FF006400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6666"/>
-        <bgColor rgb="FFFF6666"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA020F0"/>
-        <bgColor rgb="FFA020F0"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -434,6 +394,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003366"/>
+        <bgColor rgb="FF003366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor rgb="FF66FF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF993399"/>
+        <bgColor rgb="FF993399"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+        <bgColor rgb="FF006400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor rgb="FFFF6666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA020F0"/>
+        <bgColor rgb="FFA020F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6400"/>
+        <bgColor rgb="FFFF6400"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -441,21 +443,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,110 +471,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="140">
+  <dxfs count="154">
     <dxf>
       <font>
         <sz val="11"/>
@@ -669,6 +671,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF6666"/>
           <bgColor rgb="FFFF6666"/>
         </patternFill>
@@ -779,6 +789,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF6666"/>
           <bgColor rgb="FFFF6666"/>
         </patternFill>
@@ -889,6 +907,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF6666"/>
           <bgColor rgb="FFFF6666"/>
         </patternFill>
@@ -999,6 +1025,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF6666"/>
           <bgColor rgb="FFFF6666"/>
         </patternFill>
@@ -1109,6 +1143,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF6666"/>
           <bgColor rgb="FFFF6666"/>
         </patternFill>
@@ -1219,6 +1261,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF6666"/>
           <bgColor rgb="FFFF6666"/>
         </patternFill>
@@ -1329,6 +1379,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF6666"/>
           <bgColor rgb="FFFF6666"/>
         </patternFill>
@@ -1439,6 +1497,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF6666"/>
           <bgColor rgb="FFFF6666"/>
         </patternFill>
@@ -1549,6 +1615,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF6666"/>
           <bgColor rgb="FFFF6666"/>
         </patternFill>
@@ -1659,6 +1733,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF6666"/>
           <bgColor rgb="FFFF6666"/>
         </patternFill>
@@ -1769,6 +1851,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF6666"/>
           <bgColor rgb="FFFF6666"/>
         </patternFill>
@@ -1879,6 +1969,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF6666"/>
           <bgColor rgb="FFFF6666"/>
         </patternFill>
@@ -1989,6 +2087,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF6666"/>
           <bgColor rgb="FFFF6666"/>
         </patternFill>
@@ -2093,6 +2199,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF006400"/>
           <bgColor rgb="FF006400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2425,7 +2539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3320FB-0F41-47C7-AD6C-9444C0706B61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2435,523 +2549,523 @@
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="19">
         <f ca="1">COUNTIF(INDIRECT(B$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="C2" s="12">
-        <f t="shared" ref="C2:O7" ca="1" si="0">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A2)</f>
+      <c r="C2" s="19">
+        <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="D2" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D2" s="19">
+        <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="E2" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E2" s="19">
+        <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A2)</f>
         <v>3</v>
       </c>
-      <c r="F2" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F2" s="19">
+        <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="G2" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G2" s="19">
+        <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="H2" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H2" s="19">
+        <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="I2" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J2" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K2" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L2" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M2" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N2" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O2" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P2" s="13">
+      <c r="I2" s="19">
+        <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="19">
+        <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="19">
+        <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="19">
+        <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="19">
+        <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="19">
+        <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="19">
+        <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="20">
         <f ca="1">SUM(B2:O2)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="15">
-        <f t="shared" ref="B3:B7" ca="1" si="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A3)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E3" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G3" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M3" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N3" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O3" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P3" s="16">
-        <f t="shared" ref="P3:P8" ca="1" si="2">SUM(B3:O3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75">
-      <c r="A4" s="17" t="s">
+      <c r="B3" s="21">
+        <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
+        <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="21">
+        <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="21">
+        <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="21">
+        <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="21">
+        <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A3)</f>
+        <v>4</v>
+      </c>
+      <c r="J3" s="21">
+        <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="21">
+        <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="21">
+        <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="21">
+        <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="21">
+        <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="21">
+        <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="22">
+        <f ca="1">SUM(B3:O3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C4" s="18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="19">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75">
-      <c r="A5" s="20" t="s">
+      <c r="B4" s="23">
+        <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="23">
+        <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="23">
+        <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="23">
+        <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="23">
+        <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="23">
+        <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="23">
+        <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="23">
+        <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="23">
+        <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="23">
+        <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="23">
+        <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="23">
+        <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="23">
+        <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="23">
+        <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="24">
+        <f ca="1">SUM(B4:O4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C5" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="21">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B5" s="25">
+        <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="25">
+        <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="25">
+        <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="25">
+        <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A5)</f>
         <v>1</v>
       </c>
-      <c r="F5" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="22">
-        <f t="shared" ca="1" si="2"/>
+      <c r="F5" s="25">
+        <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
+        <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
+        <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="25">
+        <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="25">
+        <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="25">
+        <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="25">
+        <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="25">
+        <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="25">
+        <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="25">
+        <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="26">
+        <f ca="1">SUM(B5:O5)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="24">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75">
-      <c r="A7" s="26" t="s">
+      <c r="B6" s="27">
+        <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="27">
+        <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="27">
+        <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="27">
+        <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="27">
+        <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="27">
+        <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="27">
+        <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="27">
+        <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
+        <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="27">
+        <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="27">
+        <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="27">
+        <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="27">
+        <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="27">
+        <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="28">
+        <f ca="1">SUM(B6:O6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="28">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75">
-      <c r="A8" s="29" t="s">
+      <c r="B7" s="29">
+        <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="29">
+        <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="29">
+        <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="29">
+        <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="29">
+        <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="29">
+        <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="29">
+        <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="29">
+        <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="29">
+        <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="29">
+        <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="29">
+        <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="29">
+        <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="29">
+        <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="29">
+        <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="30">
+        <f ca="1">SUM(B7:O7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="31">
         <f ca="1">SUM(B2:B7)</f>
         <v>4</v>
       </c>
-      <c r="C8" s="30">
-        <f t="shared" ref="C8:O8" ca="1" si="3">SUM(C2:C7)</f>
+      <c r="C8" s="31">
+        <f ca="1">SUM(C2:C7)</f>
         <v>4</v>
       </c>
-      <c r="D8" s="30">
-        <f t="shared" ca="1" si="3"/>
+      <c r="D8" s="31">
+        <f ca="1">SUM(D2:D7)</f>
         <v>4</v>
       </c>
-      <c r="E8" s="30">
-        <f t="shared" ca="1" si="3"/>
+      <c r="E8" s="31">
+        <f ca="1">SUM(E2:E7)</f>
         <v>4</v>
       </c>
-      <c r="F8" s="30">
-        <f t="shared" ca="1" si="3"/>
+      <c r="F8" s="31">
+        <f ca="1">SUM(F2:F7)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="30">
-        <f t="shared" ca="1" si="3"/>
+      <c r="G8" s="31">
+        <f ca="1">SUM(G2:G7)</f>
         <v>4</v>
       </c>
-      <c r="H8" s="30">
-        <f t="shared" ca="1" si="3"/>
+      <c r="H8" s="31">
+        <f ca="1">SUM(H2:H7)</f>
         <v>4</v>
       </c>
-      <c r="I8" s="30">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="30">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="30">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="30">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="30">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="30">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="30">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+      <c r="I8" s="31">
+        <f ca="1">SUM(I2:I7)</f>
+        <v>4</v>
+      </c>
+      <c r="J8" s="31">
+        <f ca="1">SUM(J2:J7)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="31">
+        <f ca="1">SUM(K2:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="31">
+        <f ca="1">SUM(L2:L7)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="31">
+        <f ca="1">SUM(M2:M7)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="31">
+        <f ca="1">SUM(N2:N7)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="31">
+        <f ca="1">SUM(O2:O7)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="31">
+        <f ca="1">SUM(B8:O8)</f>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2969,183 +3083,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="12">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="57" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="55" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0800-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0900-000001000000}">
+      <formula1>"Sim,Não,Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0900-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3154,12 +3274,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3177,183 +3297,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="12">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="47" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="45" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0900-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0900-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+      <formula1>"Sim,Não,Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0A00-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3362,12 +3488,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3385,183 +3511,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="12">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="37" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="35" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+      <formula1>"Sim,Não,Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0B00-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3570,12 +3702,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3593,183 +3725,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="12">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="27" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0C00-000001000000}">
+      <formula1>"Sim,Não,Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0C00-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3778,12 +3916,12 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3801,183 +3939,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="12">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0C00-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0D00-000001000000}">
+      <formula1>"Sim,Não,Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0D00-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3986,12 +4130,12 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4009,183 +4153,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="12">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000E000000}"/>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0D00-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0E00-000001000000}">
+      <formula1>"Sim,Não,Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0E00-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4194,57 +4344,55 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="G1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000F000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4262,199 +4410,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="12">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="139" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="137" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="135" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>"Sim,Não,Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4463,12 +4617,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4486,199 +4640,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="12">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="129" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="127" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="125" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>"Sim,Não,Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4687,12 +4847,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4710,199 +4870,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="12">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="119" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="117" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="115" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0300-000001000000}">
+      <formula1>"Sim,Não,Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4911,12 +5077,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4933,201 +5099,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="G2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
+      <c r="G3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="12">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
+      <c r="G5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="109" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="107" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="105" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0300-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0400-000001000000}">
+      <formula1>"Sim,Não,Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5136,12 +5308,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5159,211 +5331,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="12">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="99" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="97" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="95" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0400-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0500-000001000000}">
+      <formula1>"Sim,Não,Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5372,12 +5550,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5395,207 +5573,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="12">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="87" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="85" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0500-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0600-000001000000}">
+      <formula1>"Sim,Não,Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5604,12 +5788,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5620,214 +5804,220 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="79.5703125" customWidth="1"/>
+    <col min="8" max="8" width="74" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="12">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="79" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="77" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="75" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G5 J2:J5" xr:uid="{00000000-0002-0000-0600-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E5" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0700-000001000000}">
+      <formula1>"Sim,Não,Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5836,12 +6026,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5859,183 +6049,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="E2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3"/>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3"/>
+      <c r="E4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="12">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3"/>
+      <c r="E5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="69" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="cellIs" dxfId="67" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="cellIs" dxfId="65" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0700-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5" xr:uid="{00000000-0002-0000-0800-000001000000}">
+      <formula1>"Sim,Não,Em Análise"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>

--- a/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29113"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_78DD4F9EBCBA238E80D47A2481355C63274272B3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A63794B-FCC2-4252-AB72-AE205EB9C96E}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_B8CF4F9E93C22FA51C777924810C1C6223466335" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C755F175-BE83-4F9D-85AA-7896096580AE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="76">
   <si>
     <t>Categoria</t>
   </si>
@@ -278,10 +278,19 @@
     <t>Corrigir valores do filme stretch</t>
   </si>
   <si>
+    <t>11/07/2025</t>
+  </si>
+  <si>
+    <t>13/07/2025</t>
+  </si>
+  <si>
     <t>09/07/2025</t>
   </si>
   <si>
     <t>Mês de referência</t>
+  </si>
+  <si>
+    <t>Validado Equipe de TI</t>
   </si>
 </sst>
 </file>
@@ -2633,7 +2642,7 @@
       </c>
       <c r="I2" s="19">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A2)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" s="19">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A2)</f>
@@ -2661,7 +2670,7 @@
       </c>
       <c r="P2" s="20">
         <f ca="1">SUM(B2:O2)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
@@ -2698,7 +2707,7 @@
       </c>
       <c r="I3" s="21">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="21">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A3)</f>
@@ -2726,7 +2735,7 @@
       </c>
       <c r="P3" s="22">
         <f ca="1">SUM(B3:O3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
@@ -3076,7 +3085,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="65.42578125" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -3294,7 +3303,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="70.140625" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -3512,7 +3521,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="50.28515625" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -3730,7 +3739,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="64.5703125" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -3948,7 +3957,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="81.85546875" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -4153,9 +4162,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4166,7 +4175,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="76.42578125" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -4369,7 +4378,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -4378,7 +4387,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
@@ -4395,13 +4404,22 @@
         <v>27</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>29</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4882,9 +4900,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D7" sqref="D7"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5836,7 +5854,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -6090,7 +6108,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="60" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -6145,10 +6163,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Ana Luiza de Araujo e Silva</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="12"/>
+      <c r="E2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="G2" s="15" t="s">
         <v>37</v>
       </c>
@@ -6173,10 +6193,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Herlem Carlen Ferro</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="12"/>
+      <c r="E3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="G3" s="15" t="s">
         <v>37</v>
       </c>
@@ -6233,7 +6255,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>37</v>

--- a/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_B8CF4F9E93C22FA51C777924810C1C6223466335" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C755F175-BE83-4F9D-85AA-7896096580AE}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_B9CF4F9EF9C22B89CA577A4969DC122B6B4054F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{775DF732-3306-4253-9923-80B3D8E8CDAC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="77">
   <si>
     <t>Categoria</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>13/07/2025</t>
+  </si>
+  <si>
+    <t>15/07/2025</t>
   </si>
   <si>
     <t>09/07/2025</t>
@@ -354,7 +357,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,12 +442,6 @@
         <bgColor rgb="FFA020F0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6400"/>
-        <bgColor rgb="FFFF6400"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -499,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -547,9 +544,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2551,7 +2545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2559,7 +2553,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2612,193 +2606,193 @@
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <f ca="1">COUNTIF(INDIRECT(B$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="18">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A2)</f>
         <v>3</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="18">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="18">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="18">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A2)</f>
-        <v>3</v>
-      </c>
-      <c r="J2" s="19">
+        <v>4</v>
+      </c>
+      <c r="J2" s="18">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A2)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="18">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="18">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A2)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="18">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A2)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="19">
+      <c r="N2" s="18">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A2)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="18">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A2)</f>
         <v>0</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="19">
         <f ca="1">SUM(B2:O2)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="20">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="20">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="20">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A3)</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="21">
+        <v>0</v>
+      </c>
+      <c r="J3" s="20">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="20">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="20">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="20">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="20">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="20">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="21">
         <f ca="1">SUM(B3:O3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="22">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="22">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="22">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="22">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="22">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="22">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="22">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="22">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="22">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="23">
         <f ca="1">SUM(B4:O4)</f>
         <v>0</v>
       </c>
@@ -2807,63 +2801,63 @@
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A5)</f>
         <v>1</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="24">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="24">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="24">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="24">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="24">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="24">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="25">
         <f ca="1">SUM(B5:O5)</f>
         <v>1</v>
       </c>
@@ -2872,63 +2866,63 @@
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="26">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="26">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="26">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="26">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="26">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="26">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="26">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="26">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="26">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="26">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="27">
         <f ca="1">SUM(B6:O6)</f>
         <v>0</v>
       </c>
@@ -2937,63 +2931,63 @@
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="28">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="28">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="28">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="28">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="28">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="28">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="28">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="28">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="28">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="28">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="28">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="29">
         <f ca="1">SUM(B7:O7)</f>
         <v>0</v>
       </c>
@@ -3002,63 +2996,63 @@
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="30">
         <f ca="1">SUM(B2:B7)</f>
         <v>4</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="30">
         <f ca="1">SUM(C2:C7)</f>
         <v>4</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="30">
         <f ca="1">SUM(D2:D7)</f>
         <v>4</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <f ca="1">SUM(E2:E7)</f>
         <v>4</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <f ca="1">SUM(F2:F7)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="30">
         <f ca="1">SUM(G2:G7)</f>
         <v>4</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="30">
         <f ca="1">SUM(H2:H7)</f>
         <v>4</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="30">
         <f ca="1">SUM(I2:I7)</f>
         <v>4</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="30">
         <f ca="1">SUM(J2:J7)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="30">
         <f ca="1">SUM(K2:K7)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="30">
         <f ca="1">SUM(L2:L7)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="30">
         <f ca="1">SUM(M2:M7)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="30">
         <f ca="1">SUM(N2:N7)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="30">
         <f ca="1">SUM(O2:O7)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="30">
         <f ca="1">SUM(B8:O8)</f>
         <v>32</v>
       </c>
@@ -3085,7 +3079,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="65.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -3303,7 +3297,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="70.140625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -3521,7 +3515,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="50.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -3739,7 +3733,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="64.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -3957,7 +3951,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="81.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -4162,9 +4156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4175,7 +4169,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="76.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -4404,7 +4398,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>28</v>
@@ -4416,7 +4410,7 @@
         <v>30</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>32</v>
@@ -5854,7 +5848,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -6108,7 +6102,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="60" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -6223,10 +6217,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Monica Goreth Costa Ribeiro</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="G4" s="15" t="s">
         <v>37</v>
       </c>
@@ -6255,7 +6251,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>37</v>

--- a/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B9CF4F9EF9C22B89CA577A4969DC122B6B4054F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{775DF732-3306-4253-9923-80B3D8E8CDAC}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_B9CF4F9EF952A9AFC2D67D4969DC122B6B4054F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9100660-9447-4880-9692-91C5683C5D9B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="79">
   <si>
     <t>Categoria</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>06/03/2025, 06/03/2025</t>
+  </si>
+  <si>
+    <t>Deletar 4308</t>
+  </si>
+  <si>
+    <t>Em Análise</t>
   </si>
   <si>
     <t>09/04/2025</t>
@@ -2545,7 +2551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4398,7 +4404,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>28</v>
@@ -4410,7 +4416,7 @@
         <v>30</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>32</v>
@@ -5124,9 +5130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5231,9 +5237,11 @@
         <v>37</v>
       </c>
       <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="J3" s="12" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="K3" s="12"/>
     </row>
@@ -5255,13 +5263,13 @@
         <v>16</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
@@ -5287,7 +5295,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>37</v>
@@ -5431,13 +5439,13 @@
         <v>16</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12" t="s">
@@ -5463,13 +5471,13 @@
         <v>16</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
@@ -5495,22 +5503,22 @@
         <v>16</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>36</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5531,13 +5539,13 @@
         <v>16</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12" t="s">
@@ -5677,13 +5685,13 @@
         <v>16</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12" t="s">
@@ -5709,13 +5717,13 @@
         <v>16</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
@@ -5741,13 +5749,13 @@
         <v>16</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
@@ -5773,13 +5781,13 @@
         <v>16</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12" t="s">
@@ -5848,7 +5856,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -5919,13 +5927,13 @@
         <v>16</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12" t="s">
@@ -5951,13 +5959,13 @@
         <v>16</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
@@ -5983,13 +5991,13 @@
         <v>16</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
@@ -6015,13 +6023,13 @@
         <v>16</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12" t="s">
@@ -6161,7 +6169,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>37</v>
@@ -6191,7 +6199,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>37</v>
@@ -6221,7 +6229,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>37</v>
@@ -6251,7 +6259,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>37</v>

--- a/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29122"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_B9CF4F9EF952A9AFC2D67D4969DC122B6B4054F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9100660-9447-4880-9692-91C5683C5D9B}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E9CF2262382552F58390594969DC122B6B4054C6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F42368AB-394B-4851-8EA7-4C44EDA70ECA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -3290,7 +3290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -5130,9 +5130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5856,7 +5856,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>

--- a/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29203"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E92C0A9257B204D3497CBFBD45B7FD422C8FF5CF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC05E201-95CA-411D-A928-76C9E25BD2B5}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E92C0A9257E20FDF313FBBBD45B7FD422C8FF5CF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{249552DE-5D77-4DF3-AC3C-6F130C5B0D28}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -2560,7 +2560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="C2:I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3081,9 +3083,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29322"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_F06E4564069D02E5955DAA7025A2FCED9D0BD121" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E7C49A5EB1A0DEBF8E3724E068D53D8EB34C77BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFADFD6E-DC84-4B18-BB3F-8A8CC9BFC047}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="85">
   <si>
     <t>Categoria</t>
   </si>
@@ -303,6 +303,15 @@
   </si>
   <si>
     <t>26/08/2025</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>11/09/2025</t>
   </si>
   <si>
     <t>Mês de referência</t>
@@ -372,7 +381,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +460,12 @@
         <bgColor rgb="FFFF6666"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6400"/>
+        <bgColor rgb="FFFF6400"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -505,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -550,6 +565,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2551,7 +2569,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2559,7 +2579,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2612,193 +2632,193 @@
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
         <f ca="1">COUNTIF(INDIRECT(B$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="18">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="18">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="18">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="18">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="18">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="18">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="18">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="18">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="18">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A2)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="17">
+        <v>3</v>
+      </c>
+      <c r="L2" s="18">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A2)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="18">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A2)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="18">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A2)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="18">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A2)</f>
         <v>0</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="19">
         <f ca="1">SUM(B2:O2)</f>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="20">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="20">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="20">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="20">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="20">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="20">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="20">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="20">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="20">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="20">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A3)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="19">
+        <v>1</v>
+      </c>
+      <c r="L3" s="20">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="20">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="20">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="20">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="20">
+      <c r="P3" s="21">
         <f ca="1">SUM(B3:O3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="22">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="22">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="22">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="22">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="22">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="22">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="22">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="22">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="22">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="22">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="22">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="22">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="22">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="22">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="23">
         <f ca="1">SUM(B4:O4)</f>
         <v>0</v>
       </c>
@@ -2807,63 +2827,63 @@
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="24">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="24">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="24">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="24">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="24">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="24">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="24">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="24">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="24">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="24">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="24">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="24">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="24">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="24">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="25">
         <f ca="1">SUM(B5:O5)</f>
         <v>0</v>
       </c>
@@ -2872,63 +2892,63 @@
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="26">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="26">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="26">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="26">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="26">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="26">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="26">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="26">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="26">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="26">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="26">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="26">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="26">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="26">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="27">
         <f ca="1">SUM(B6:O6)</f>
         <v>0</v>
       </c>
@@ -2937,63 +2957,63 @@
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="28">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="28">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="28">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="28">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="28">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="28">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="28">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="28">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="28">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="28">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="28">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="28">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="28">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="28">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="29">
         <f ca="1">SUM(B7:O7)</f>
         <v>0</v>
       </c>
@@ -3002,65 +3022,65 @@
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="30">
         <f ca="1">SUM(B2:B7)</f>
         <v>4</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="30">
         <f ca="1">SUM(C2:C7)</f>
         <v>4</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="30">
         <f ca="1">SUM(D2:D7)</f>
         <v>4</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="30">
         <f ca="1">SUM(E2:E7)</f>
         <v>4</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="30">
         <f ca="1">SUM(F2:F7)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="30">
         <f ca="1">SUM(G2:G7)</f>
         <v>4</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="30">
         <f ca="1">SUM(H2:H7)</f>
         <v>4</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="30">
         <f ca="1">SUM(I2:I7)</f>
         <v>4</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="30">
         <f ca="1">SUM(J2:J7)</f>
         <v>4</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="30">
         <f ca="1">SUM(K2:K7)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="29">
+        <v>4</v>
+      </c>
+      <c r="L8" s="30">
         <f ca="1">SUM(L2:L7)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="30">
         <f ca="1">SUM(M2:M7)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="30">
         <f ca="1">SUM(N2:N7)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="30">
         <f ca="1">SUM(O2:O7)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="30">
         <f ca="1">SUM(B8:O8)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3306,9 +3326,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3374,8 +3394,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Ana Luiza de Araujo e Silva</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="E2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="G2" s="15" t="s">
         <v>37</v>
       </c>
@@ -3400,8 +3424,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Herlem Carlen Ferro</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="G3" s="15" t="s">
         <v>37</v>
       </c>
@@ -3426,7 +3454,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Monica Goreth Costa Ribeiro</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="12"/>
       <c r="G4" s="15" t="s">
         <v>37</v>
@@ -3452,8 +3482,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Thiago da Sailva Santos</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="G5" s="15" t="s">
         <v>37</v>
       </c>
@@ -4420,7 +4454,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>28</v>
@@ -4432,7 +4466,7 @@
         <v>30</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>32</v>

--- a/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E7C49A5EB1A0DEBF8E3724E068D53D8EB34C77BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFADFD6E-DC84-4B18-BB3F-8A8CC9BFC047}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E7C49A5EB1505A80727526E068D53D8EB34C77BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3105403-2E59-42F0-91EB-020936A65707}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -2569,9 +2569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3326,9 +3324,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D22" sqref="D22"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E7C49A5EB1505A80727526E068D53D8EB34C77BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3105403-2E59-42F0-91EB-020936A65707}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_DB22E86A502FB053363F83A34044A182BB951D33" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8EA4A23-0069-484B-8EDF-075AB5DC4941}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="85">
   <si>
     <t>Categoria</t>
   </si>
@@ -381,7 +381,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,6 +462,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF6400"/>
         <bgColor rgb="FFFF6400"/>
       </patternFill>
@@ -520,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -568,6 +574,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2569,7 +2578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2577,7 +2588,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2630,63 +2641,63 @@
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="19">
         <f ca="1">COUNTIF(INDIRECT(B$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="19">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="19">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="19">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="19">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="19">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="19">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="19">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="19">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="19">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A2)</f>
         <v>3</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="19">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A2)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="19">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A2)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="19">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A2)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="19">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A2)</f>
         <v>0</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="20">
         <f ca="1">SUM(B2:O2)</f>
         <v>39</v>
       </c>
@@ -2695,193 +2706,193 @@
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="21">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="21">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="21">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="21">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="21">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="21">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="21">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="21">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="21">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="21">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A3)</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="20">
+        <v>0</v>
+      </c>
+      <c r="L3" s="21">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A3)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="20">
+        <v>4</v>
+      </c>
+      <c r="M3" s="21">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="21">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="21">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="22">
         <f ca="1">SUM(B3:O3)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="23">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="23">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="23">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="23">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="23">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="23">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="23">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="23">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="23">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="23">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A4)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="22">
+        <v>1</v>
+      </c>
+      <c r="L4" s="23">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="23">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="23">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="23">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="24">
         <f ca="1">SUM(B4:O4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="25">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="25">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="25">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="25">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="25">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="25">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="25">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="25">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="25">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="25">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="25">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="25">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="25">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="25">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="26">
         <f ca="1">SUM(B5:O5)</f>
         <v>0</v>
       </c>
@@ -2890,63 +2901,63 @@
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="27">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="27">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="27">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="27">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="27">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="27">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="27">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="27">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="27">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="27">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="27">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="27">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="27">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="27">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="28">
         <f ca="1">SUM(B6:O6)</f>
         <v>0</v>
       </c>
@@ -2955,63 +2966,63 @@
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="29">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="29">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="29">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="29">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="29">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="29">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="29">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="29">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="29">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="29">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="29">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="29">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="29">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="29">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="30">
         <f ca="1">SUM(B7:O7)</f>
         <v>0</v>
       </c>
@@ -3020,65 +3031,65 @@
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="31">
         <f ca="1">SUM(B2:B7)</f>
         <v>4</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="31">
         <f ca="1">SUM(C2:C7)</f>
         <v>4</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="31">
         <f ca="1">SUM(D2:D7)</f>
         <v>4</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="31">
         <f ca="1">SUM(E2:E7)</f>
         <v>4</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="31">
         <f ca="1">SUM(F2:F7)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="31">
         <f ca="1">SUM(G2:G7)</f>
         <v>4</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="31">
         <f ca="1">SUM(H2:H7)</f>
         <v>4</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="31">
         <f ca="1">SUM(I2:I7)</f>
         <v>4</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="31">
         <f ca="1">SUM(J2:J7)</f>
         <v>4</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="31">
         <f ca="1">SUM(K2:K7)</f>
         <v>4</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="31">
         <f ca="1">SUM(L2:L7)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="30">
+        <v>4</v>
+      </c>
+      <c r="M8" s="31">
         <f ca="1">SUM(M2:M7)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="31">
         <f ca="1">SUM(N2:N7)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="31">
         <f ca="1">SUM(O2:O7)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="31">
         <f ca="1">SUM(B8:O8)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3324,9 +3335,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3334,8 +3345,7 @@
     <col min="1" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="5" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
@@ -3453,7 +3463,7 @@
         <v>Monica Goreth Costa Ribeiro</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="15" t="s">
@@ -3624,7 +3634,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Ana Luiza de Araujo e Silva</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="F2" s="12"/>
       <c r="G2" s="15" t="s">
         <v>37</v>
@@ -3650,7 +3662,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Herlem Carlen Ferro</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="12"/>
       <c r="G3" s="15" t="s">
         <v>37</v>
@@ -3676,7 +3690,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Monica Goreth Costa Ribeiro</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="12"/>
       <c r="G4" s="15" t="s">
         <v>37</v>
@@ -3702,7 +3718,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Thiago da Sailva Santos</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="12"/>
       <c r="G5" s="15" t="s">
         <v>37</v>

--- a/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29421"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_DB22E86A502FB053363F83A34044A182BB951D33" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8EA4A23-0069-484B-8EDF-075AB5DC4941}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_8AA6FF66A33C82B0F9C100DDA8D2D6FCC29736EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BDE94B8-B8BD-4C90-9C1E-203A9020C1BF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="90">
   <si>
     <t>Categoria</t>
   </si>
@@ -311,7 +311,22 @@
     <t>16/09/2025</t>
   </si>
   <si>
+    <t>07/10/2025</t>
+  </si>
+  <si>
     <t>11/09/2025</t>
+  </si>
+  <si>
+    <t>15/10/2025</t>
+  </si>
+  <si>
+    <t>14/10/2025</t>
+  </si>
+  <si>
+    <t>20/10/2025</t>
+  </si>
+  <si>
+    <t>10/10/2025</t>
   </si>
   <si>
     <t>Mês de referência</t>
@@ -381,7 +396,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,18 +475,6 @@
         <bgColor rgb="FFFF6666"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6400"/>
-        <bgColor rgb="FFFF6400"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -526,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -571,12 +574,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2578,9 +2575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2588,7 +2583,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2641,258 +2636,258 @@
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="17">
         <f ca="1">COUNTIF(INDIRECT(B$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="17">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="17">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="17">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="17">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="17">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="17">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="17">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A2)</f>
         <v>4</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="17">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A2)</f>
-        <v>3</v>
-      </c>
-      <c r="L2" s="19">
+        <v>4</v>
+      </c>
+      <c r="L2" s="17">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A2)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="19">
+        <v>4</v>
+      </c>
+      <c r="M2" s="17">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A2)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="19">
+      <c r="N2" s="17">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A2)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="17">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A2)</f>
         <v>0</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="18">
         <f ca="1">SUM(B2:O2)</f>
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="19">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="19">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="19">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="19">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="19">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="19">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="19">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="19">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="19">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A3)</f>
-        <v>4</v>
-      </c>
-      <c r="M3" s="21">
+        <v>0</v>
+      </c>
+      <c r="M3" s="19">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="19">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="19">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A3)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="20">
         <f ca="1">SUM(B3:O3)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="21">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="21">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="21">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="21">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="21">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="21">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="21">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="21">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="21">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="21">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A4)</f>
-        <v>1</v>
-      </c>
-      <c r="L4" s="23">
+        <v>0</v>
+      </c>
+      <c r="L4" s="21">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="21">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="21">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="21">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A4)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="22">
         <f ca="1">SUM(B4:O4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="23">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="23">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="23">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="23">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="23">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="23">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="23">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="23">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="23">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="23">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="23">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="23">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="23">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="23">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A5)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="24">
         <f ca="1">SUM(B5:O5)</f>
         <v>0</v>
       </c>
@@ -2901,63 +2896,63 @@
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="25">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="25">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="25">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="25">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="25">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="25">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="25">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="25">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="25">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="25">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="25">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="25">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="25">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A6)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="26">
         <f ca="1">SUM(B6:O6)</f>
         <v>0</v>
       </c>
@@ -2966,63 +2961,63 @@
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="27">
         <f ca="1">COUNTIF(INDIRECT("11.24!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="27">
         <f ca="1">COUNTIF(INDIRECT(C$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="27">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="27">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="27">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="27">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="27">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="27">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="27">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="27">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="27">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="27">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="27">
         <f ca="1">COUNTIF(INDIRECT(N$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="27">
         <f ca="1">COUNTIF(INDIRECT(O$1&amp;"!E2:E1000"),$A7)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="28">
         <f ca="1">SUM(B7:O7)</f>
         <v>0</v>
       </c>
@@ -3031,63 +3026,63 @@
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="29">
         <f ca="1">SUM(B2:B7)</f>
         <v>4</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="29">
         <f ca="1">SUM(C2:C7)</f>
         <v>4</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="29">
         <f ca="1">SUM(D2:D7)</f>
         <v>4</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="29">
         <f ca="1">SUM(E2:E7)</f>
         <v>4</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="29">
         <f ca="1">SUM(F2:F7)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="29">
         <f ca="1">SUM(G2:G7)</f>
         <v>4</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="29">
         <f ca="1">SUM(H2:H7)</f>
         <v>4</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="29">
         <f ca="1">SUM(I2:I7)</f>
         <v>4</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="29">
         <f ca="1">SUM(J2:J7)</f>
         <v>4</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="29">
         <f ca="1">SUM(K2:K7)</f>
         <v>4</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="29">
         <f ca="1">SUM(L2:L7)</f>
         <v>4</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="29">
         <f ca="1">SUM(M2:M7)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="29">
         <f ca="1">SUM(N2:N7)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="29">
         <f ca="1">SUM(O2:O7)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="29">
         <f ca="1">SUM(B8:O8)</f>
         <v>44</v>
       </c>
@@ -3335,9 +3330,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3345,7 +3340,8 @@
     <col min="1" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="6" width="18" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
@@ -3462,10 +3458,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Monica Goreth Costa Ribeiro</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="G4" s="15" t="s">
         <v>37</v>
       </c>
@@ -3494,7 +3492,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>37</v>
@@ -3634,10 +3632,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Ana Luiza de Araujo e Silva</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="12"/>
+      <c r="E2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="G2" s="15" t="s">
         <v>37</v>
       </c>
@@ -3662,10 +3662,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Herlem Carlen Ferro</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="12"/>
+      <c r="E3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="G3" s="15" t="s">
         <v>37</v>
       </c>
@@ -3690,10 +3692,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Monica Goreth Costa Ribeiro</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="G4" s="15" t="s">
         <v>37</v>
       </c>
@@ -3718,10 +3722,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Thiago da Sailva Santos</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="12"/>
+      <c r="E5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="G5" s="15" t="s">
         <v>37</v>
       </c>
@@ -4470,7 +4476,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>28</v>
@@ -4482,7 +4488,7 @@
         <v>30</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>32</v>

--- a/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Belém/0 - Monitoramento Form 4.xlsx
@@ -105,7 +105,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="20">
     <fill>
       <patternFill/>
     </fill>
@@ -162,6 +162,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF993399"/>
+        <bgColor rgb="FF993399"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+        <bgColor rgb="FF006400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor rgb="FF66FF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0066FF66"/>
+        <bgColor rgb="0066FF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00993399"/>
         <bgColor rgb="00993399"/>
       </patternFill>
@@ -174,14 +198,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0066FF66"/>
-        <bgColor rgb="0066FF66"/>
+        <fgColor rgb="FFFF6666"/>
+        <bgColor rgb="FFFF6666"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF6666"/>
         <bgColor rgb="00FF6666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6400"/>
+        <bgColor rgb="FFFF6400"/>
       </patternFill>
     </fill>
     <fill>
@@ -329,29 +359,29 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -438,6 +468,19 @@
         <patternFill patternType="solid">
           <fgColor rgb="00808080"/>
           <bgColor rgb="00808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <color rgb="00FFFFFF"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="0031869b"/>
+          <bgColor rgb="0031869b"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1483,9 +1526,9 @@
           <t>14/08/2025</t>
         </is>
       </c>
-      <c r="G2" s="29" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G2" s="28" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H2" s="26" t="n"/>
@@ -1660,7 +1703,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1792,9 +1835,9 @@
           <t>15/09/2025</t>
         </is>
       </c>
-      <c r="G2" s="29" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G2" s="28" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H2" s="26" t="n"/>
@@ -1969,7 +2012,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2101,9 +2144,9 @@
           <t>15/10/2025</t>
         </is>
       </c>
-      <c r="G2" s="29" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G2" s="28" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H2" s="26" t="n"/>
@@ -2278,7 +2321,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2400,15 +2443,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="30" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F2" s="26" t="n"/>
-      <c r="G2" s="29" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E2" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F2" s="26" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="G2" s="28" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H2" s="26" t="n"/>
@@ -2438,12 +2485,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="30" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F3" s="26" t="n"/>
+      <c r="E3" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F3" s="26" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
       <c r="G3" s="29" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2575,7 +2626,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2697,11 +2748,19 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="26" t="n"/>
-      <c r="F2" s="26" t="n"/>
-      <c r="G2" s="29" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E2" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F2" s="26" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="G2" s="28" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H2" s="26" t="n"/>
@@ -2731,8 +2790,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="26" t="n"/>
-      <c r="F3" s="26" t="n"/>
+      <c r="E3" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F3" s="26" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
       <c r="G3" s="29" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2807,8 +2874,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="26" t="n"/>
-      <c r="F5" s="26" t="n"/>
+      <c r="E5" s="27" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F5" s="26" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
       <c r="G5" s="29" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2860,7 +2935,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3137,7 +3212,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3524,7 +3599,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3833,7 +3908,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4146,7 +4221,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4467,7 +4542,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4800,7 +4875,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5125,7 +5200,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5450,7 +5525,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5582,9 +5657,9 @@
           <t>11/07/2025</t>
         </is>
       </c>
-      <c r="G2" s="29" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G2" s="28" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H2" s="26" t="n"/>
@@ -5759,7 +5834,7 @@
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
